--- a/categories-hierarchy.xlsx
+++ b/categories-hierarchy.xlsx
@@ -2294,9 +2294,6 @@
     <t>piracy</t>
   </si>
   <si>
-    <t>sexual offence</t>
-  </si>
-  <si>
     <t>paedophilia</t>
   </si>
   <si>
@@ -3312,6 +3309,9 @@
   </si>
   <si>
     <t>LEVEL 5</t>
+  </si>
+  <si>
+    <t>sexual offense</t>
   </si>
 </sst>
 </file>
@@ -3802,7 +3802,9 @@
   </sheetPr>
   <dimension ref="A1:E1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A705" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C721" sqref="C721"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3815,19 +3817,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1" t="s">
         <v>1090</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1091</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1092</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1093</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11470,10 +11472,10 @@
         <v>734</v>
       </c>
       <c r="C719" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D719" t="s">
         <v>755</v>
-      </c>
-      <c r="D719" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
@@ -11484,10 +11486,10 @@
         <v>734</v>
       </c>
       <c r="C720" t="s">
-        <v>755</v>
+        <v>1094</v>
       </c>
       <c r="D720" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
@@ -11498,10 +11500,10 @@
         <v>734</v>
       </c>
       <c r="C721" t="s">
-        <v>755</v>
+        <v>1094</v>
       </c>
       <c r="D721" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
@@ -11517,7 +11519,7 @@
         <v>733</v>
       </c>
       <c r="B723" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
@@ -11525,7 +11527,7 @@
         <v>733</v>
       </c>
       <c r="B724" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
@@ -11533,7 +11535,7 @@
         <v>733</v>
       </c>
       <c r="B725" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
@@ -11541,7 +11543,7 @@
         <v>733</v>
       </c>
       <c r="B726" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
@@ -11549,10 +11551,10 @@
         <v>733</v>
       </c>
       <c r="B727" t="s">
+        <v>762</v>
+      </c>
+      <c r="C727" t="s">
         <v>763</v>
-      </c>
-      <c r="C727" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
@@ -11560,10 +11562,10 @@
         <v>733</v>
       </c>
       <c r="B728" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C728" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -11571,7 +11573,7 @@
         <v>733</v>
       </c>
       <c r="B729" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
@@ -11579,10 +11581,10 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
+        <v>765</v>
+      </c>
+      <c r="C730" t="s">
         <v>766</v>
-      </c>
-      <c r="C730" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
@@ -11590,13 +11592,13 @@
         <v>733</v>
       </c>
       <c r="B731" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C731" t="s">
+        <v>767</v>
+      </c>
+      <c r="D731" t="s">
         <v>768</v>
-      </c>
-      <c r="D731" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
@@ -11604,13 +11606,13 @@
         <v>733</v>
       </c>
       <c r="B732" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C732" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D732" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
@@ -11618,10 +11620,10 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C733" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
@@ -11629,7 +11631,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
@@ -11637,7 +11639,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -11645,13 +11647,13 @@
         <v>733</v>
       </c>
       <c r="B736" t="s">
+        <v>772</v>
+      </c>
+      <c r="C736" t="s">
         <v>773</v>
       </c>
-      <c r="C736" t="s">
+      <c r="D736" t="s">
         <v>774</v>
-      </c>
-      <c r="D736" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -11659,10 +11661,10 @@
         <v>733</v>
       </c>
       <c r="B737" t="s">
+        <v>772</v>
+      </c>
+      <c r="C737" t="s">
         <v>773</v>
-      </c>
-      <c r="C737" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
@@ -11670,13 +11672,13 @@
         <v>733</v>
       </c>
       <c r="B738" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C738" t="s">
+        <v>775</v>
+      </c>
+      <c r="D738" t="s">
         <v>776</v>
-      </c>
-      <c r="D738" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
@@ -11684,10 +11686,10 @@
         <v>733</v>
       </c>
       <c r="B739" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C739" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
@@ -11695,7 +11697,7 @@
         <v>733</v>
       </c>
       <c r="B740" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
@@ -11703,10 +11705,10 @@
         <v>733</v>
       </c>
       <c r="B741" t="s">
+        <v>777</v>
+      </c>
+      <c r="C741" t="s">
         <v>778</v>
-      </c>
-      <c r="C741" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
@@ -11714,10 +11716,10 @@
         <v>733</v>
       </c>
       <c r="B742" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C742" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
@@ -11725,10 +11727,10 @@
         <v>733</v>
       </c>
       <c r="B743" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C743" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
@@ -11736,10 +11738,10 @@
         <v>733</v>
       </c>
       <c r="B744" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C744" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
@@ -11749,3150 +11751,3150 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B746" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B747" t="s">
+        <v>785</v>
+      </c>
+      <c r="C747" t="s">
         <v>786</v>
-      </c>
-      <c r="C747" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B748" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C748" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B749" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B750" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B751" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B752" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B753" t="s">
+        <v>791</v>
+      </c>
+      <c r="C753" t="s">
         <v>792</v>
-      </c>
-      <c r="C753" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B754" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B755" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B756" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B757" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B758" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B759" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B760" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B761" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B762" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B763" t="s">
+        <v>801</v>
+      </c>
+      <c r="C763" t="s">
         <v>802</v>
-      </c>
-      <c r="C763" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B764" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C764" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B765" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B766" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B767" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B768" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B769" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B770" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B771" t="s">
+        <v>809</v>
+      </c>
+      <c r="C771" t="s">
         <v>810</v>
-      </c>
-      <c r="C771" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B772" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C772" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B773" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C773" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B774" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C774" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B775" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B776" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B777" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B778" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B779" t="s">
+        <v>817</v>
+      </c>
+      <c r="C779" t="s">
         <v>818</v>
-      </c>
-      <c r="C779" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B780" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B781" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B782" t="s">
+        <v>820</v>
+      </c>
+      <c r="C782" t="s">
         <v>821</v>
-      </c>
-      <c r="C782" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B783" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B784" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B785" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B786" t="s">
+        <v>824</v>
+      </c>
+      <c r="C786" t="s">
         <v>825</v>
-      </c>
-      <c r="C786" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B787" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C787" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B788" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B789" t="s">
+        <v>827</v>
+      </c>
+      <c r="C789" t="s">
         <v>828</v>
-      </c>
-      <c r="C789" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B790" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C790" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B791" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C791" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B792" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B793" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B794" t="s">
+        <v>832</v>
+      </c>
+      <c r="C794" t="s">
         <v>833</v>
-      </c>
-      <c r="C794" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B795" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B796" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B797" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B798" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B799" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B800" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B801" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B802" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B803" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B804" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B805" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B806" t="s">
+        <v>844</v>
+      </c>
+      <c r="C806" t="s">
         <v>845</v>
-      </c>
-      <c r="C806" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B807" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C807" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B808" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C808" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B809" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B810" t="s">
+        <v>848</v>
+      </c>
+      <c r="C810" t="s">
         <v>849</v>
-      </c>
-      <c r="C810" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B811" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C811" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B812" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C812" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B813" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B814" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B815" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B816" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
+        <v>782</v>
+      </c>
+      <c r="B817" t="s">
         <v>783</v>
-      </c>
-      <c r="B817" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B818" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B819" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B820" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B821" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B822" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B823" t="s">
+        <v>860</v>
+      </c>
+      <c r="C823" t="s">
         <v>861</v>
-      </c>
-      <c r="C823" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B824" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B825" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B826" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B827" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B828" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B829" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B830" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
+        <v>868</v>
+      </c>
+      <c r="B832" t="s">
         <v>869</v>
       </c>
-      <c r="B832" t="s">
-        <v>870</v>
-      </c>
       <c r="C832" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
+        <v>868</v>
+      </c>
+      <c r="B833" t="s">
         <v>869</v>
       </c>
-      <c r="B833" t="s">
-        <v>870</v>
-      </c>
       <c r="C833" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
+        <v>868</v>
+      </c>
+      <c r="B834" t="s">
         <v>869</v>
       </c>
-      <c r="B834" t="s">
-        <v>870</v>
-      </c>
       <c r="C834" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
+        <v>868</v>
+      </c>
+      <c r="B835" t="s">
         <v>869</v>
       </c>
-      <c r="B835" t="s">
-        <v>870</v>
-      </c>
       <c r="C835" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
+        <v>868</v>
+      </c>
+      <c r="B836" t="s">
         <v>869</v>
       </c>
-      <c r="B836" t="s">
-        <v>870</v>
-      </c>
       <c r="C836" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
+        <v>868</v>
+      </c>
+      <c r="B837" t="s">
         <v>869</v>
       </c>
-      <c r="B837" t="s">
-        <v>870</v>
-      </c>
       <c r="C837" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
+        <v>868</v>
+      </c>
+      <c r="B838" t="s">
         <v>869</v>
       </c>
-      <c r="B838" t="s">
-        <v>870</v>
-      </c>
       <c r="C838" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
+        <v>868</v>
+      </c>
+      <c r="B839" t="s">
         <v>869</v>
       </c>
-      <c r="B839" t="s">
+      <c r="C839" t="s">
         <v>870</v>
-      </c>
-      <c r="C839" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
+        <v>868</v>
+      </c>
+      <c r="B840" t="s">
         <v>869</v>
       </c>
-      <c r="B840" t="s">
-        <v>870</v>
-      </c>
       <c r="C840" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
+        <v>868</v>
+      </c>
+      <c r="B841" t="s">
         <v>869</v>
-      </c>
-      <c r="B841" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B842" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C842" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B843" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C843" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D843" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B844" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C844" t="s">
+        <v>881</v>
+      </c>
+      <c r="D844" t="s">
         <v>882</v>
-      </c>
-      <c r="D844" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B845" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C845" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D845" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B846" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C846" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B847" t="s">
+        <v>879</v>
+      </c>
+      <c r="C847" t="s">
         <v>880</v>
-      </c>
-      <c r="C847" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B848" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C848" t="s">
+        <v>889</v>
+      </c>
+      <c r="D848" t="s">
         <v>890</v>
-      </c>
-      <c r="D848" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B849" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C849" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D849" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B850" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C850" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D850" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B851" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C851" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B852" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C852" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B853" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C853" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B854" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B855" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C855" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B856" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C856" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B857" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C857" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B858" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C858" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B859" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C859" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B860" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C860" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B861" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C861" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B862" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C862" t="s">
+        <v>897</v>
+      </c>
+      <c r="D862" t="s">
         <v>898</v>
-      </c>
-      <c r="D862" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B863" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C863" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B864" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C864" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B865" t="s">
+        <v>895</v>
+      </c>
+      <c r="C865" t="s">
         <v>896</v>
-      </c>
-      <c r="C865" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B866" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C866" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B867" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C867" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C868" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B869" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C869" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B870" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B871" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B872" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C872" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B873" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C873" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B874" t="s">
+        <v>911</v>
+      </c>
+      <c r="C874" t="s">
         <v>912</v>
-      </c>
-      <c r="C874" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B875" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C875" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B876" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C876" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B877" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B878" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C878" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B879" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C879" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B880" t="s">
+        <v>917</v>
+      </c>
+      <c r="C880" t="s">
         <v>918</v>
-      </c>
-      <c r="C880" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B881" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C881" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B882" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B883" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B884" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B885" t="s">
+        <v>924</v>
+      </c>
+      <c r="C885" t="s">
         <v>925</v>
-      </c>
-      <c r="C885" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B886" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B887" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B889" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B890" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B891" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B892" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C892" t="s">
         <v>1022</v>
-      </c>
-      <c r="C892" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B893" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C893" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B894" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B895" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C895" t="s">
+        <v>942</v>
+      </c>
+      <c r="D895" t="s">
         <v>943</v>
-      </c>
-      <c r="D895" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B896" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C896" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D896" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B897" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C897" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D897" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B898" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C898" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B899" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C899" t="s">
+        <v>946</v>
+      </c>
+      <c r="D899" t="s">
         <v>947</v>
-      </c>
-      <c r="D899" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B900" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C900" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D900" t="s">
+        <v>949</v>
+      </c>
+      <c r="E900" t="s">
         <v>950</v>
-      </c>
-      <c r="E900" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B901" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C901" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D901" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E901" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B902" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C902" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D902" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E902" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B903" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C903" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D903" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E903" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B904" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C904" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D904" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E904" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B905" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C905" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D905" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B906" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C906" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B907" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C907" t="s">
+        <v>955</v>
+      </c>
+      <c r="D907" t="s">
         <v>956</v>
-      </c>
-      <c r="D907" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B908" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C908" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D908" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B909" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C909" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D909" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B910" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C910" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B911" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C911" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B912" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C912" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B913" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C913" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B914" t="s">
+        <v>934</v>
+      </c>
+      <c r="C914" t="s">
         <v>935</v>
       </c>
-      <c r="C914" t="s">
+      <c r="D914" t="s">
         <v>936</v>
       </c>
-      <c r="D914" t="s">
+      <c r="E914" t="s">
         <v>937</v>
-      </c>
-      <c r="E914" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B915" t="s">
+        <v>934</v>
+      </c>
+      <c r="C915" t="s">
         <v>935</v>
       </c>
-      <c r="C915" t="s">
+      <c r="D915" t="s">
         <v>936</v>
-      </c>
-      <c r="D915" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B916" t="s">
+        <v>934</v>
+      </c>
+      <c r="C916" t="s">
         <v>935</v>
-      </c>
-      <c r="C916" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B917" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C917" t="s">
+        <v>959</v>
+      </c>
+      <c r="D917" t="s">
         <v>960</v>
-      </c>
-      <c r="D917" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B918" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C918" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D918" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B919" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C919" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D919" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B920" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C920" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D920" t="s">
+        <v>963</v>
+      </c>
+      <c r="E920" t="s">
         <v>964</v>
-      </c>
-      <c r="E920" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B921" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C921" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D921" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E921" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B922" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C922" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D922" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E922" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B923" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C923" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D923" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B924" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C924" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D924" t="s">
+        <v>967</v>
+      </c>
+      <c r="E924" t="s">
         <v>968</v>
-      </c>
-      <c r="E924" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B925" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C925" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D925" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E925" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B926" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C926" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B928" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B929" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B930" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C930" t="s">
         <v>1025</v>
-      </c>
-      <c r="C930" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B931" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C931" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B932" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C932" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B933" t="s">
+        <v>970</v>
+      </c>
+      <c r="C933" t="s">
         <v>971</v>
       </c>
-      <c r="C933" t="s">
+      <c r="D933" t="s">
         <v>972</v>
-      </c>
-      <c r="D933" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B934" t="s">
+        <v>970</v>
+      </c>
+      <c r="C934" t="s">
         <v>971</v>
       </c>
-      <c r="C934" t="s">
-        <v>972</v>
-      </c>
       <c r="D934" t="s">
+        <v>974</v>
+      </c>
+      <c r="E934" t="s">
         <v>975</v>
-      </c>
-      <c r="E934" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B935" t="s">
+        <v>970</v>
+      </c>
+      <c r="C935" t="s">
         <v>971</v>
       </c>
-      <c r="C935" t="s">
-        <v>972</v>
-      </c>
       <c r="D935" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E935" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B936" t="s">
+        <v>970</v>
+      </c>
+      <c r="C936" t="s">
         <v>971</v>
       </c>
-      <c r="C936" t="s">
-        <v>972</v>
-      </c>
       <c r="D936" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E936" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B937" t="s">
+        <v>970</v>
+      </c>
+      <c r="C937" t="s">
         <v>971</v>
       </c>
-      <c r="C937" t="s">
-        <v>972</v>
-      </c>
       <c r="D937" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B938" t="s">
+        <v>970</v>
+      </c>
+      <c r="C938" t="s">
         <v>971</v>
       </c>
-      <c r="C938" t="s">
-        <v>972</v>
-      </c>
       <c r="D938" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B939" t="s">
+        <v>970</v>
+      </c>
+      <c r="C939" t="s">
         <v>971</v>
-      </c>
-      <c r="C939" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B940" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C940" t="s">
+        <v>988</v>
+      </c>
+      <c r="D940" t="s">
         <v>989</v>
-      </c>
-      <c r="D940" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B941" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C941" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D941" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B942" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C942" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D942" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B943" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C943" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D943" t="s">
+        <v>991</v>
+      </c>
+      <c r="E943" t="s">
         <v>992</v>
-      </c>
-      <c r="E943" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B944" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C944" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D944" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B945" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C945" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D945" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B946" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C946" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D946" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B947" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C947" t="s">
+        <v>978</v>
+      </c>
+      <c r="D947" t="s">
         <v>979</v>
-      </c>
-      <c r="D947" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B948" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C948" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D948" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B949" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C949" t="s">
+        <v>981</v>
+      </c>
+      <c r="D949" t="s">
         <v>982</v>
-      </c>
-      <c r="D949" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B950" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C950" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D950" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E950" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B951" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C951" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D951" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E951" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B952" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C952" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D952" t="s">
+        <v>983</v>
+      </c>
+      <c r="E952" t="s">
         <v>984</v>
-      </c>
-      <c r="E952" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B953" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C953" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D953" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E953" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B954" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C954" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B955" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B956" t="s">
+        <v>996</v>
+      </c>
+      <c r="C956" t="s">
         <v>997</v>
-      </c>
-      <c r="C956" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B957" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C957" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B958" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C958" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B959" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C959" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B960" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C960" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B961" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C961" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B962" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C962" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B963" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C963" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B964" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C964" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D964" t="s">
         <v>1004</v>
-      </c>
-      <c r="D964" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B965" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C965" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B966" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B967" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B968" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C968" t="s">
         <v>1008</v>
-      </c>
-      <c r="C968" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B969" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C969" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B970" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B971" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C971" t="s">
         <v>1012</v>
-      </c>
-      <c r="C971" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B972" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C972" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B973" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C973" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B974" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C974" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B975" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B976" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C976" t="s">
         <v>1017</v>
-      </c>
-      <c r="C976" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B977" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C977" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B978" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C978" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B979" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C979" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B980" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B981" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C981" t="s">
         <v>1029</v>
-      </c>
-      <c r="C981" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B982" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C982" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B983" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C983" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B984" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C984" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D984" t="s">
         <v>1033</v>
-      </c>
-      <c r="D984" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B985" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C985" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B986" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C986" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B987" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C987" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B988" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
+        <v>927</v>
+      </c>
+      <c r="B989" t="s">
         <v>928</v>
-      </c>
-      <c r="B989" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B990" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B991" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B993" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B994" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B995" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B996" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B997" t="s">
         <v>1039</v>
       </c>
-      <c r="B997" t="s">
+      <c r="C997" t="s">
         <v>1040</v>
-      </c>
-      <c r="C997" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B998" t="s">
         <v>1039</v>
       </c>
-      <c r="B998" t="s">
-        <v>1040</v>
-      </c>
       <c r="C998" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B999" t="s">
         <v>1039</v>
       </c>
-      <c r="B999" t="s">
-        <v>1040</v>
-      </c>
       <c r="C999" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1000" t="s">
         <v>1039</v>
       </c>
-      <c r="B1000" t="s">
-        <v>1040</v>
-      </c>
       <c r="C1000" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1001" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1001" t="s">
         <v>1049</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1002" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1002" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1003" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1003" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1004" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1004" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1005" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1005" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1006" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1006" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1007" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1007" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1008" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1008" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1009" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1009" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1010" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1010" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1011" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1011" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1012" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1012" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1013" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1013" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1014" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1014" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1015" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1015" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1016" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1016" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1017" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1017" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1018" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1018" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1019" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1020" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1020" t="s">
         <v>1068</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1021" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C1021" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1022" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C1022" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1023" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1023" t="s">
         <v>1072</v>
       </c>
-      <c r="C1023" t="s">
+      <c r="D1023" t="s">
         <v>1073</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1024" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1024" t="s">
         <v>1072</v>
       </c>
-      <c r="C1024" t="s">
-        <v>1073</v>
-      </c>
       <c r="D1024" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1025" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1025" t="s">
         <v>1072</v>
       </c>
-      <c r="C1025" t="s">
-        <v>1073</v>
-      </c>
       <c r="D1025" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1026" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1026" t="s">
         <v>1072</v>
       </c>
-      <c r="C1026" t="s">
-        <v>1073</v>
-      </c>
       <c r="D1026" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1027" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1027" t="s">
         <v>1072</v>
       </c>
-      <c r="C1027" t="s">
-        <v>1073</v>
-      </c>
       <c r="D1027" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1028" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1028" t="s">
         <v>1072</v>
       </c>
-      <c r="C1028" t="s">
-        <v>1073</v>
-      </c>
       <c r="D1028" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1029" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1029" t="s">
         <v>1072</v>
-      </c>
-      <c r="C1029" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1030" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1030" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1031" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1031" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1031" t="s">
         <v>1081</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1032" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1032" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1032" t="s">
         <v>1083</v>
-      </c>
-      <c r="D1032" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1033" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1033" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1034" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1035" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1036" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1037" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
